--- a/xlsx/圣多明各_intext.xlsx
+++ b/xlsx/圣多明各_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="121">
   <si>
     <t>圣多明各</t>
   </si>
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_圣多明各</t>
+    <t>政策_政策_美国_圣多明各</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>國家特區</t>
+    <t>国家特区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E6%89%98%E6%B4%9B%E6%A2%85%E5%A5%A7%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>巴爾托洛梅奧·哥倫布</t>
+    <t>巴尔托洛梅奥·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E6%9C%83%E5%8D%80</t>
   </si>
   <si>
-    <t>都會區</t>
+    <t>都会区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%BA%E5%9F%9F%E5%B1%85%E6%B0%91%E7%A7%B0%E8%B0%93%E8%AF%8D</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%9A%E6%98%8E%E5%93%A5%E7%9C%81</t>
   </si>
   <si>
-    <t>聖多明哥省</t>
+    <t>圣多明哥省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%AF%9D%E5%8F%B7%E7%A0%81%E5%88%86%E7%B1%BB%E8%AE%A1%E5%88%92</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B7%B4</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大學</t>
+    <t>大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E9%99%A2</t>
   </si>
   <si>
-    <t>醫院</t>
+    <t>医院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E5%A0%82</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>哥倫布</t>
+    <t>哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%91%97</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B8%82</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E5%8C%97%E5%B8%82</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%89%E5%8A%A0%E6%96%AF</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E7%BE%8E%E9%81%8B%E5%8B%95%E6%9C%83</t>
   </si>
   <si>
-    <t>泛美運動會</t>
+    <t>泛美运动会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%AE%9C%E8%AF%BA%E6%96%AF%E8%89%BE%E5%88%A9%E6%96%AF</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B0%BC%E4%BC%AF</t>
   </si>
   <si>
-    <t>溫尼伯</t>
+    <t>温尼伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9</t>
@@ -293,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%99%AE%E6%8B%89%E5%A1%94</t>
   </si>
   <si>
-    <t>馬德普拉塔</t>
+    <t>马德普拉塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E7%BA%A6%E7%83%AD%E5%86%85%E5%8D%A2</t>
@@ -335,15 +335,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
+    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7</t>
   </si>
   <si>
-    <t>世界遗产</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E7%BE%8E%E6%B4%B2%E5%92%8C%E5%8A%A0%E5%8B%92%E6%AF%94%E5%9C%B0%E5%8C%BA%E4%B8%96%E7%95%8C%E9%81%97%E4%BA%A7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2288,7 +2285,7 @@
         <v>107</v>
       </c>
       <c r="F54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2314,10 +2311,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2343,10 +2340,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2372,10 +2369,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2401,10 +2398,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2430,10 +2427,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2459,10 +2456,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>4</v>
@@ -2488,10 +2485,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
